--- a/A-开发相关文档素材/3.测试用例/参与人/参与人列表查询 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/参与人/参与人列表查询 - 测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="查询参与人列表" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>用例接口</t>
   </si>
@@ -87,7 +87,25 @@
     <t>userId为null，其他入参正常，检查结果是否正确</t>
   </si>
   <si>
-    <t>不传userId参数项，检查结果是否正确</t>
+    <t>不传userId参数项，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>int类型传入极端值</t>
+  </si>
+  <si>
+    <t>userId为int最大值+1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误:请求参数错误，请检查后重新输入后台抛错:请求参数错误，请检查后重新输入</t>
+  </si>
+  <si>
+    <t>userId为int最小值-1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>findType为int最大值+1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>findType为int最小值-1，其他入参正常，检查结果是否正确</t>
   </si>
   <si>
     <t>findType为""或者null</t>
@@ -103,7 +121,7 @@
     <t>findType为null，其他入参正常，检查结果是否正确</t>
   </si>
   <si>
-    <t>不传findType参数项，检查结果是否正确</t>
+    <t>不传findType参数项，其他入参正常，检查结果是否正确</t>
   </si>
   <si>
     <t>入参类型异常</t>
@@ -119,6 +137,15 @@
 后台抛错：请输入正确的查询类型</t>
   </si>
   <si>
+    <t>传入不同的参数类型</t>
+  </si>
+  <si>
+    <t>findType不传入int类型，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>userId不传入int类型，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
     <t>入参项目异常</t>
   </si>
   <si>
@@ -141,6 +168,9 @@
   </si>
   <si>
     <t>所有入参正确传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>findType为1时返回所有个人数据，findType为2时返回所有群组数据，findType为3时返回参与人列表为空</t>
   </si>
   <si>
     <t>数据异常         数据库无连接</t>
@@ -199,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -243,6 +273,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -251,50 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -303,6 +370,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -313,14 +388,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,9 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,43 +416,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -420,19 +450,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,67 +564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,25 +600,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,62 +634,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -653,43 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -706,8 +699,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,41 +744,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +778,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -808,145 +801,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -956,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,21 +980,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,7 +998,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,10 +1448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1491,7 +1478,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="18"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6"/>
@@ -1506,7 +1493,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="18"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1539,11 +1526,11 @@
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="24" customHeight="1" spans="1:11">
+    <row r="4" ht="24" spans="1:11">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1553,13 +1540,13 @@
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
@@ -1568,19 +1555,19 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:11">
+    <row r="5" ht="24" spans="1:11">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3"/>
@@ -1593,15 +1580,15 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="3"/>
@@ -1610,21 +1597,21 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:11">
+    <row r="7" ht="24" spans="1:11">
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="3"/>
@@ -1633,19 +1620,19 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="1:11">
+    <row r="8" ht="24" spans="1:11">
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="3"/>
@@ -1654,19 +1641,19 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="26" customHeight="1" spans="1:11">
+    <row r="9" ht="24" spans="1:11">
       <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3"/>
@@ -1675,23 +1662,19 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="26" customHeight="1" spans="1:11">
+    <row r="10" ht="24" spans="1:11">
       <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="3"/>
@@ -1700,49 +1683,43 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:11">
-      <c r="A11" s="14">
+    <row r="11" ht="24" spans="1:11">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" ht="24" spans="1:11">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="1:11">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>34</v>
+      <c r="E12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1752,20 +1729,18 @@
     </row>
     <row r="13" ht="24" spans="1:11">
       <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1773,20 +1748,165 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
+    <row r="14" ht="24" spans="1:11">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" ht="24" spans="1:11">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" ht="24" spans="1:11">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:11">
+      <c r="A17" s="10">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" ht="37" customHeight="1" spans="1:11">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" ht="24" spans="1:11">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G8 G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G10 G11 G12 G13 G7:G9">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
@@ -1800,7 +1920,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
@@ -1808,7 +1928,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -1816,10 +1936,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1827,15 +1947,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1865,31 +1985,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/A-开发相关文档素材/3.测试用例/参与人/参与人列表查询 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/参与人/参与人列表查询 - 测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>用例接口</t>
   </si>
@@ -167,10 +167,22 @@
     <t>所有入参均不为空</t>
   </si>
   <si>
-    <t>所有入参正确传参，查看结果是否正确</t>
-  </si>
-  <si>
-    <t>findType为1时返回所有个人数据，findType为2时返回所有群组数据，findType为3时返回参与人列表为空</t>
+    <t>findType为1,其它入参正确传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>findType为1时返回所有个人数据</t>
+  </si>
+  <si>
+    <t>findType为2,其它入参正确传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>findType为2时返回所有群组数据</t>
+  </si>
+  <si>
+    <t>findType为3,其它入参正确传参，查看结果是否正确</t>
+  </si>
+  <si>
+    <t>findType为3时返回参与人列表为空</t>
   </si>
   <si>
     <t>数据异常         数据库无连接</t>
@@ -229,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -288,6 +300,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -297,13 +317,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,8 +344,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,14 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -395,27 +415,19 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -456,6 +468,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,19 +492,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,102 +588,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,25 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,30 +708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -739,7 +727,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,7 +760,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,21 +805,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -801,145 +813,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -949,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,9 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1448,10 +1457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1478,7 +1487,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="16"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6"/>
@@ -1493,7 +1502,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="16"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1526,7 +1535,7 @@
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1537,16 +1546,16 @@
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
@@ -1560,14 +1569,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3"/>
@@ -1581,14 +1590,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="3"/>
@@ -1602,16 +1611,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="3"/>
@@ -1625,14 +1634,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="3"/>
@@ -1646,14 +1655,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3"/>
@@ -1667,14 +1676,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="3"/>
@@ -1688,16 +1697,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="3"/>
@@ -1711,14 +1720,14 @@
         <v>9</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="3"/>
@@ -1732,14 +1741,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="3"/>
@@ -1758,13 +1767,13 @@
       <c r="C14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="3"/>
@@ -1781,13 +1790,13 @@
       <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="3"/>
@@ -1802,13 +1811,13 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="3"/>
@@ -1827,20 +1836,20 @@
       <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" ht="37" customHeight="1" spans="1:11">
       <c r="A18" s="9">
@@ -1852,13 +1861,13 @@
       <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="3"/>
@@ -1867,28 +1876,78 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" ht="24" spans="1:11">
+    <row r="19" ht="37" customHeight="1" spans="1:11">
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>51</v>
+      <c r="F19" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
+    </row>
+    <row r="20" ht="37" customHeight="1" spans="1:11">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" ht="24" spans="1:11">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1906,7 +1965,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G10 G11 G12 G13 G7:G9">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
@@ -1928,7 +1987,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -1939,7 +1998,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1947,15 +2006,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1985,31 +2044,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9">
